--- a/medicine/Enfance/David_Dumortier/David_Dumortier.xlsx
+++ b/medicine/Enfance/David_Dumortier/David_Dumortier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Dumortier, né le 31 décembre 1967, est un écrivain, poète et auteur jeunesse français.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'un éleveur de cochons[1], il vit une enfance campagnarde et rude, qu'il passe en Charente[2]. Il s'est tourné très jeune vers le monde arabe, dont il apprend la langue[1]. Diplômé de l'Inalco[2], il a vécu en Syrie, en Jordanie et en Égypte, et a longtemps travaillé dans le milieu psychiatrique[3]. Il a collaboré au journal Avant-Garde et a participé à diverses revues[2], comme Digraphe, Décharge, ou Gros-Textes[1].
-Il intervient aujourd'hui régulièrement en milieu scolaire[2],[4]. Plusieurs de ses livres ont été publiés avec le concours du Centre national du livre (CNL)[2], et il est lauréat en 2006[2] et 2012[5] de la bourse de création du CNL[2]. Deux de ses ouvrages sont sélectionnés comme « ouvrages de référence » par le ministère de l'Éducation nationale[6] : La Clarisse[7] (2000), et Ces gens qui sont des arbres[8] (2003), qui est également Coup de cœur 2003 du Centre national de la littérature pour la jeunesse (BnF)[9].
-Il est aussi l'auteur d'un spectacle portatif de poche intitulé "Music-hall Poésie" dans lequel il mêle poésie, objets détournés et magie. Le spectacle est labellisé « Printemps des poètes 2012 »[2].
-Dans ses écrits, il aborde les thèmes de l'arbre, du métro, de la prison, ou du monde paysan[2].
-Dans l'ouvrage jeunesse Mehdi met du rouge à lèvres, publié en 2006, il évoque les questions de différences filles / garçons. La critique du Centre national de la littérature pour la jeunesse (BnF) mentionne : « Il s'agit du portrait, à travers ses attitudes, ses sentiments, ses mots, d'un petit garçon qui dérange parce qu'il se conduit " en fille "[10]. » Il développe ce thème du travestissement de façon plus élaborée dans son ouvrage autobiographique Travesti[11], destiné à un public adulte[6] — voire averti —, publié en 2012 aux éditions Le Dilettante[12]. L'ouvrage est sélectionné pour le Prix Mauvais genres 2012[13].
-En 2017, il déclare dans un entretien : « J’ai passé un contrat avec moi-même, en me promettant de fuir tout ce qui ressemble à l’esclavage, la soumission et l’obéissance. Et comme j’ai toujours ressenti ces trois spectres dans la plupart des romans, j’ai plutôt choisi la poésie, qui est à mon avis la dernière à être encore insolente[6]. »
-Il habite aujourd'hui à Paris[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un éleveur de cochons, il vit une enfance campagnarde et rude, qu'il passe en Charente. Il s'est tourné très jeune vers le monde arabe, dont il apprend la langue. Diplômé de l'Inalco, il a vécu en Syrie, en Jordanie et en Égypte, et a longtemps travaillé dans le milieu psychiatrique. Il a collaboré au journal Avant-Garde et a participé à diverses revues, comme Digraphe, Décharge, ou Gros-Textes.
+Il intervient aujourd'hui régulièrement en milieu scolaire,. Plusieurs de ses livres ont été publiés avec le concours du Centre national du livre (CNL), et il est lauréat en 2006 et 2012 de la bourse de création du CNL. Deux de ses ouvrages sont sélectionnés comme « ouvrages de référence » par le ministère de l'Éducation nationale : La Clarisse (2000), et Ces gens qui sont des arbres (2003), qui est également Coup de cœur 2003 du Centre national de la littérature pour la jeunesse (BnF).
+Il est aussi l'auteur d'un spectacle portatif de poche intitulé "Music-hall Poésie" dans lequel il mêle poésie, objets détournés et magie. Le spectacle est labellisé « Printemps des poètes 2012 ».
+Dans ses écrits, il aborde les thèmes de l'arbre, du métro, de la prison, ou du monde paysan.
+Dans l'ouvrage jeunesse Mehdi met du rouge à lèvres, publié en 2006, il évoque les questions de différences filles / garçons. La critique du Centre national de la littérature pour la jeunesse (BnF) mentionne : « Il s'agit du portrait, à travers ses attitudes, ses sentiments, ses mots, d'un petit garçon qui dérange parce qu'il se conduit " en fille ". » Il développe ce thème du travestissement de façon plus élaborée dans son ouvrage autobiographique Travesti, destiné à un public adulte — voire averti —, publié en 2012 aux éditions Le Dilettante. L'ouvrage est sélectionné pour le Prix Mauvais genres 2012.
+En 2017, il déclare dans un entretien : « J’ai passé un contrat avec moi-même, en me promettant de fuir tout ce qui ressemble à l’esclavage, la soumission et l’obéissance. Et comme j’ai toujours ressenti ces trois spectres dans la plupart des romans, j’ai plutôt choisi la poésie, qui est à mon avis la dernière à être encore insolente. »
+Il habite aujourd'hui à Paris.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cigarettes marocaines, ill. de Houman, éd. Bouchain, 1995.
 Instants fermiers, éd. L'Arbre, 1997.
@@ -569,7 +585,7 @@
 Ma famille nombreuse : 76 poèmes et un éléphant, ill. Lucile Placin, éd. Rue du monde, 2009.
 Les Bateaux qui parlent, ill. Martine Mellinette, éd. Cheyne, 2010  (ISBN 978-2-84116-155-3).
 20 poèmes au nez pointu, ill. Anne-Lise Boutin, Éditions Sarbacane, 2012.
-Travesti, Le Dilettante, 2012[12]
+Travesti, Le Dilettante, 2012
 Des oranges pour ma mère, ill. Estelle Aguelon, éd. Cheyne, 2012.
 Les Bateaux qui restent, Les Petites Allées, 2012.
 Le Jeu de la bonne aventure, ill. Aude Léonard, éd. Motus, 2014.
@@ -613,13 +629,15 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Poésyvelines 2004[2] pour Une femme de ferme
-Prix des Explorateurs 2006[2] pour Croquis de métro, ill. de Frédo Coyère
-Prix Joël Sadeler 2007[14] pour Mehdi met du rouge à lèvres 
-Prix Bib de rue de la ville de Sartrouville 2010[2] pour Ma famille nombreuse : 76 poèmes et un éléphant, ill. de Lucile Placin
-Sélection Prix Mauvais genres 2012 pour Travesti[13]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Poésyvelines 2004 pour Une femme de ferme
+Prix des Explorateurs 2006 pour Croquis de métro, ill. de Frédo Coyère
+Prix Joël Sadeler 2007 pour Mehdi met du rouge à lèvres 
+Prix Bib de rue de la ville de Sartrouville 2010 pour Ma famille nombreuse : 76 poèmes et un éléphant, ill. de Lucile Placin
+Sélection Prix Mauvais genres 2012 pour Travesti</t>
         </is>
       </c>
     </row>
